--- a/数据整理/stocks/A股/创业板/300755-华致酒行.xlsx
+++ b/数据整理/stocks/A股/创业板/300755-华致酒行.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,13 +1547,407 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>26</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300755-华致酒行.xlsx
+++ b/数据整理/stocks/A股/创业板/300755-华致酒行.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.12</v>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1941,13 +1984,841 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>26</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300755-华致酒行.xlsx
+++ b/数据整理/stocks/A股/创业板/300755-华致酒行.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011410</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中信建投量化进取6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1340</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006644</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>弘毅远方消费升级混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1180</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
@@ -580,910 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>202019</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方策略优化混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1180</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010642</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银汇理秀山一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1001</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004234</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧数据挖掘多因子灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0817</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010703</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通智选消费股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0527</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005329</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富民安增益定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009954</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>北信瑞丰优选成长股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011231</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>光大保德信锦弘混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001990</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧数据挖掘多因子灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>400020</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方成长回报平衡混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>42.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0321</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001242</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001243</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数I</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011411</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中信建投量化进取6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006401</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001829</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>北信瑞丰中国智造主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.15</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>013242</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>北信瑞丰优势行业股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0274</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010704</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>财通智选消费股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002123</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006402</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011232</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>光大保德信锦弘混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>21.09</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005330</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇添富民安增益定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>27.36</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002952</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>建信多因子量化股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.66</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004724</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>先锋聚元灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>47.32</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006157</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>财通量化核心优选混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004725</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>先锋聚元灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>47.32</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>
@@ -1492,6 +532,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1889,13 +1783,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1946,36 +1840,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160425</t>
+          <t>011410</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安创业板两年定期开放混合</t>
+          <t>中信建投量化进取6个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.38</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1797</t>
+          <t>0.1340</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1984,36 +1878,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002376</t>
+          <t>006644</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国寿安保核心产业灵活配置混合</t>
+          <t>弘毅远方消费升级混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.54</t>
+          <t>81.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1402</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2022,36 +1916,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002291</t>
+          <t>202019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安安鑫灵活配置混合</t>
+          <t>南方策略优化混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.20</t>
+          <t>94.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0847</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2060,36 +1954,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011410</t>
+          <t>010642</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信建投量化进取6个月持有期混合A</t>
+          <t>农银汇理秀山一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0694</t>
+          <t>0.1001</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2098,36 +1992,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>004234</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.0817</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2136,36 +2030,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005329</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富民安增益定期开放混合A</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0527</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2174,36 +2068,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009954</t>
+          <t>005329</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北信瑞丰优选成长股票</t>
+          <t>汇添富民安增益定期开放混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>27.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2212,36 +2106,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005175</t>
+          <t>009954</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国寿安保消费新蓝海灵活配置混合</t>
+          <t>北信瑞丰优选成长股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.90</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0481</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2250,36 +2144,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001829</t>
+          <t>011231</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>北信瑞丰中国智造主题灵活配置混合</t>
+          <t>光大保德信锦弘混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2288,36 +2182,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011411</t>
+          <t>001990</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信建投量化进取6个月持有期混合C</t>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2326,36 +2220,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002123</t>
+          <t>400020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>北信瑞丰外延增长主题灵活配置混合</t>
+          <t>东方成长回报平衡混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>42.37</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2364,36 +2258,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005330</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富民安增益定期开放混合C</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2402,36 +2296,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001664</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平安鑫安混合A</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>32.32</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2440,36 +2334,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>011411</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>中信建投量化进取6个月持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28.05</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2478,36 +2372,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28.05</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -2516,36 +2410,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007049</t>
+          <t>001829</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平安鑫安混合E</t>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32.32</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0275</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2554,36 +2448,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004727</t>
+          <t>013242</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合C</t>
+          <t>北信瑞丰优势行业股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>92.14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0274</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2592,36 +2486,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003586</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合A</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0256</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2630,36 +2524,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003587</t>
+          <t>002123</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>先锋精一灵活配置混合C</t>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2668,36 +2562,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004726</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>先锋聚优灵活配置混合A</t>
+          <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2706,120 +2600,226 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001665</t>
+          <t>011232</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>平安鑫安混合C</t>
+          <t>光大保德信锦弘混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>32.32</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>7</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.07</v>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300755-华致酒行.xlsx
+++ b/数据整理/stocks/A股/创业板/300755-华致酒行.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>1.12</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>26</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.07</v>
       </c>
     </row>
@@ -532,6 +549,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1385,7 +1496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1783,7 +1894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300755-华致酒行.xlsx
+++ b/数据整理/stocks/A股/创业板/300755-华致酒行.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>1.12</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>26</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.07</v>
       </c>
     </row>
@@ -549,6 +566,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015963</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015635</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015964</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015636</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -642,7 +1057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1496,7 +1911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1894,7 +2309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
